--- a/The registration form requirements.xlsx
+++ b/The registration form requirements.xlsx
@@ -1,31 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elena\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EF66E5D-FD88-4474-9B02-F96B72B8DB38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Лист1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="59">
+  <si>
+    <t>http://itcareer.pythonanywhere.com/</t>
+  </si>
+  <si>
+    <t>The spaces at the beginning and at the end of a field are automatically cut out.</t>
+  </si>
   <si>
     <t>Placeholders should be visible for all fields</t>
   </si>
   <si>
-    <t>Password displayed as *****</t>
+    <t>Password is displayed as *****</t>
   </si>
   <si>
     <t>Error message is displayed</t>
@@ -40,7 +37,10 @@
     <t>Not allowed</t>
   </si>
   <si>
-    <t>Name field, Surname field</t>
+    <t>Name field</t>
+  </si>
+  <si>
+    <t>The Name field is mandatory.</t>
   </si>
   <si>
     <t>character limit</t>
@@ -66,18 +66,18 @@
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
+        <rFont val="Arial"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve">uppercase letters, lowercase letters;                                       </t>
     </r>
     <r>
       <rPr>
+        <rFont val="Arial"/>
         <b/>
-        <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <sz val="12.0"/>
       </rPr>
       <t>case insensitive</t>
     </r>
@@ -111,58 +111,83 @@
     <t>1-9; Arabic numerals; numerals only</t>
   </si>
   <si>
-    <t>Email field</t>
-  </si>
-  <si>
-    <t>username (characters)</t>
-  </si>
-  <si>
-    <t>4-64</t>
-  </si>
-  <si>
-    <t>0-3; more than 64</t>
-  </si>
-  <si>
-    <t>domain name before . dot (characters)</t>
-  </si>
-  <si>
-    <t>1-16</t>
-  </si>
-  <si>
-    <t>0: more than 16</t>
-  </si>
-  <si>
-    <t>after . dot (characters)</t>
-  </si>
-  <si>
-    <t>2-16</t>
-  </si>
-  <si>
-    <t>0;1; more than 16</t>
-  </si>
-  <si>
-    <t>Latin;  only letters allowed</t>
+    <t xml:space="preserve"> Surname field</t>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
+        <rFont val="Arial"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve">uppercase letters, lowercase letters;                                       </t>
     </r>
     <r>
       <rPr>
+        <rFont val="Arial"/>
         <b/>
-        <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <sz val="12.0"/>
       </rPr>
       <t>case insensitive</t>
     </r>
   </si>
   <si>
+    <t>Email field</t>
+  </si>
+  <si>
+    <t>The Email field is mandatory.</t>
+  </si>
+  <si>
+    <t>username (characters)</t>
+  </si>
+  <si>
+    <t>4-64</t>
+  </si>
+  <si>
+    <t>0-3; more than 64</t>
+  </si>
+  <si>
+    <t>domain name before . dot (characters)</t>
+  </si>
+  <si>
+    <t>1-16</t>
+  </si>
+  <si>
+    <t>0: more than 16</t>
+  </si>
+  <si>
+    <t>after . dot (characters)</t>
+  </si>
+  <si>
+    <t>2-16</t>
+  </si>
+  <si>
+    <t>0;1; more than 16</t>
+  </si>
+  <si>
+    <t>Latin;  only letters allowed</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">uppercase letters, lowercase letters;                                       </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>case insensitive</t>
+    </r>
+  </si>
+  <si>
     <t>.dot                                                                                                                                                                        
 -dash 
 _underscore                                                                                                                                                         @ at</t>
@@ -192,6 +217,9 @@
     <t>Password field</t>
   </si>
   <si>
+    <t>The Password field is mandatory.</t>
+  </si>
+  <si>
     <t>6-32</t>
   </si>
   <si>
@@ -212,26 +240,26 @@
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
+        <rFont val="Arial"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve">uppercase letters, lowercase letters;                                      </t>
     </r>
     <r>
       <rPr>
+        <rFont val="Arial"/>
         <b/>
-        <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve">case sensitive;             </t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <rFont val="Arial"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <sz val="12.0"/>
       </rPr>
       <t>may have only upper-case letters</t>
     </r>
@@ -243,54 +271,55 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="10">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="12"/>
+      <sz val="12.0"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="12.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-    </font>
+    <font/>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="12.0"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="12.0"/>
       <color theme="0"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="12.0"/>
       <color rgb="FF1F1F1F"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="12.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -300,7 +329,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -315,22 +344,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
+    <border/>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -342,8 +361,11 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
     </border>
     <border>
       <left style="thin">
@@ -352,13 +374,6 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -367,9 +382,12 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
@@ -378,11 +396,9 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -397,125 +413,153 @@
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="35">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+  <cellXfs count="39">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="7" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="0" fontId="7" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -705,414 +749,498 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="27.88671875" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" customWidth="1"/>
-    <col min="4" max="4" width="50.5546875" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="24.0"/>
+    <col customWidth="1" min="2" max="2" width="27.86"/>
+    <col customWidth="1" min="3" max="3" width="28.71"/>
+    <col customWidth="1" min="4" max="4" width="50.57"/>
+    <col customWidth="1" min="5" max="5" width="29.71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="28"/>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="29"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-    </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-    </row>
-    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-    </row>
-    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="D6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="4" t="s">
+    </row>
+    <row r="7">
+      <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="B7" s="9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="4" t="s">
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="45.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
-      <c r="B9" s="4" t="s">
+    <row r="9">
+      <c r="A9" s="11"/>
+      <c r="B9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
-      <c r="B10" s="4" t="s">
+      <c r="D9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="4" t="s">
+    </row>
+    <row r="10">
+      <c r="A10" s="11"/>
+      <c r="B10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="C10" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="4" t="s">
+      <c r="D10" s="14"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="11"/>
+      <c r="B11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
-      <c r="B12" s="7" t="s">
+    <row r="12">
+      <c r="A12" s="11"/>
+      <c r="B12" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+      <c r="D12" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="10" t="s">
+    </row>
+    <row r="13">
+      <c r="A13" s="16"/>
+      <c r="B13" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="19"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="11"/>
+      <c r="B15" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="11"/>
+      <c r="B16" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D16" s="14"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="11"/>
+      <c r="B17" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="11"/>
+      <c r="B18" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="16"/>
+      <c r="B19" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="19"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="B20" s="21" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="B15" s="4" t="s">
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="11"/>
+      <c r="B21" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C21" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D21" s="22" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="4" t="s">
+    <row r="22">
+      <c r="A22" s="11"/>
+      <c r="B22" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="23"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="11"/>
+      <c r="B23" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" ht="43.5" customHeight="1">
+      <c r="A24" s="11"/>
+      <c r="B24" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="14"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="11"/>
+      <c r="B26" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="11"/>
+      <c r="B27" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="11"/>
+      <c r="B28" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="16"/>
+      <c r="B29" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="25"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="28"/>
+    </row>
+    <row r="31">
+      <c r="B31" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="45.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="23"/>
-      <c r="B17" s="4" t="s">
+      <c r="C31" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" s="23"/>
+    </row>
+    <row r="32">
+      <c r="B32" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="5"/>
-    </row>
-    <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
-      <c r="B18" s="4" t="s">
+      <c r="C32" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
-      <c r="B19" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
-      <c r="B20" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="5" t="s">
+    </row>
+    <row r="33">
+      <c r="B33" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="14"/>
+    </row>
+    <row r="34">
+      <c r="B34" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
-      <c r="B21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="13"/>
-    </row>
-    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="26"/>
-      <c r="B23" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="26"/>
-      <c r="B24" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="5"/>
-    </row>
-    <row r="25" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="26"/>
-      <c r="B25" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="26"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="16"/>
-    </row>
-    <row r="27" spans="1:4" ht="75.599999999999994" x14ac:dyDescent="0.25">
-      <c r="A27" s="26"/>
-      <c r="B27" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" s="16"/>
-    </row>
-    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="27"/>
-      <c r="B28" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D28" s="7"/>
-    </row>
-    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="18"/>
-    </row>
-    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-    </row>
-    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="19"/>
-    </row>
-    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="19"/>
-    </row>
-    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="21"/>
-    </row>
-    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-    </row>
-    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-    </row>
-    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-    </row>
-    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
+      <c r="D34" s="30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" s="31"/>
+      <c r="C35" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" s="32"/>
+    </row>
+    <row r="36">
+      <c r="B36" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" s="32"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="33"/>
+      <c r="B37" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>58</v>
+      </c>
       <c r="D37" s="17"/>
     </row>
-    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-    </row>
-    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-    </row>
-    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
+    <row r="38">
+      <c r="A38" s="34"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="35"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="34"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="34"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="36"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="34"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="36"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="34"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="38"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="34"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="34"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="34"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="34"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="34"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="34"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="34"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="34"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A13:A21"/>
-    <mergeCell ref="A22:A28"/>
+  <mergeCells count="13">
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="A20:A29"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="A30:A37"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B30:D30"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="A1"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>